--- a/data/MASK/MAPPING_RASTER_ID_AND_LABEL.xlsx
+++ b/data/MASK/MAPPING_RASTER_ID_AND_LABEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuadimasaka/Desktop/PhD/GitHub/rwa/data/MASK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A7E8C-20D7-C44C-B8B5-D9285C6C213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA2A88-269E-5841-BC80-CA97D05A080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7194" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7194" uniqueCount="1725">
   <si>
     <t>id</t>
   </si>
@@ -5195,6 +5195,9 @@
   </si>
   <si>
     <t>Western Province - Rutsiro - Rusebeya</t>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
@@ -5566,16 +5569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>387</v>
       </c>
@@ -5699,12 +5702,12 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>388</v>
       </c>
       <c r="B3">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C3">
         <v>389</v>
@@ -5761,7 +5764,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>389</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>390</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>391</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>392</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>393</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>394</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>395</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>1192</v>
+        <v>1724</v>
       </c>
       <c r="K10" t="s">
         <v>1193</v>
@@ -6195,7 +6198,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>396</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>397</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>398</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>399</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>400</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>401</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>402</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>403</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>404</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>405</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>406</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>407</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>408</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>409</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>410</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>411</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>412</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>413</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>414</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>415</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>416</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>417</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>418</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>419</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>420</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>421</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>191</v>
       </c>
@@ -7869,12 +7872,12 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>192</v>
       </c>
       <c r="B38">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C38">
         <v>193</v>
@@ -7931,7 +7934,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>193</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>194</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>195</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>196</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>197</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>198</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>199</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>200</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>201</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>202</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>203</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>204</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>205</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>206</v>
       </c>
@@ -8799,7 +8802,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>207</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>208</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>209</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>210</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>211</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>212</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>213</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>214</v>
       </c>
@@ -9295,7 +9298,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>215</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>216</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>217</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>218</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>219</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>220</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>221</v>
       </c>
@@ -9729,7 +9732,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>222</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>223</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>224</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>225</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>226</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>227</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>228</v>
       </c>
@@ -10163,7 +10166,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>229</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>230</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>231</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>232</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>233</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>234</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>235</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>236</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>237</v>
       </c>
@@ -10721,7 +10724,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>238</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>239</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>240</v>
       </c>
@@ -10907,7 +10910,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>241</v>
       </c>
@@ -10969,7 +10972,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>242</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>243</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>244</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>245</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>246</v>
       </c>
@@ -11279,7 +11282,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>247</v>
       </c>
@@ -11341,7 +11344,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>248</v>
       </c>
@@ -11403,7 +11406,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>249</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>250</v>
       </c>
@@ -11527,7 +11530,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>251</v>
       </c>
@@ -11589,7 +11592,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>252</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>253</v>
       </c>
@@ -11713,7 +11716,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>254</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>255</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>256</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>257</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>258</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>259</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>260</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>261</v>
       </c>
@@ -12209,7 +12212,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>262</v>
       </c>
@@ -12271,7 +12274,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>263</v>
       </c>
@@ -12333,7 +12336,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>264</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>265</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>266</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>267</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>268</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>269</v>
       </c>
@@ -12705,7 +12708,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>270</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>271</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>272</v>
       </c>
@@ -12891,7 +12894,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>273</v>
       </c>
@@ -12953,7 +12956,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>274</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>275</v>
       </c>
@@ -13077,7 +13080,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>276</v>
       </c>
@@ -13139,7 +13142,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>277</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>278</v>
       </c>
@@ -13263,7 +13266,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>279</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>280</v>
       </c>
@@ -13387,7 +13390,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>281</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>282</v>
       </c>
@@ -13511,7 +13514,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>283</v>
       </c>
@@ -13573,7 +13576,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>284</v>
       </c>
@@ -13635,7 +13638,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>285</v>
       </c>
@@ -13697,7 +13700,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>286</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>287</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>288</v>
       </c>
@@ -13883,7 +13886,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>289</v>
       </c>
@@ -13945,7 +13948,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>290</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>291</v>
       </c>
@@ -14069,7 +14072,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>292</v>
       </c>
@@ -14131,7 +14134,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>293</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>294</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>295</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>296</v>
       </c>
@@ -14379,7 +14382,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>297</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>298</v>
       </c>
@@ -14503,7 +14506,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>299</v>
       </c>
@@ -14565,7 +14568,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>300</v>
       </c>
@@ -14627,7 +14630,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>301</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>302</v>
       </c>
@@ -14751,7 +14754,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>303</v>
       </c>
@@ -14813,7 +14816,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>304</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>305</v>
       </c>
@@ -14937,7 +14940,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>306</v>
       </c>
@@ -14999,7 +15002,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>307</v>
       </c>
@@ -15061,7 +15064,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>308</v>
       </c>
@@ -15123,7 +15126,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>309</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>310</v>
       </c>
@@ -15247,7 +15250,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>311</v>
       </c>
@@ -15309,7 +15312,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>312</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>313</v>
       </c>
@@ -15433,7 +15436,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>314</v>
       </c>
@@ -15495,7 +15498,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>315</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>316</v>
       </c>
@@ -15619,7 +15622,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>317</v>
       </c>
@@ -15681,7 +15684,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>318</v>
       </c>
@@ -15743,7 +15746,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>319</v>
       </c>
@@ -15805,7 +15808,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>320</v>
       </c>
@@ -15867,7 +15870,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>321</v>
       </c>
@@ -15929,7 +15932,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>322</v>
       </c>
@@ -15991,7 +15994,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>323</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>324</v>
       </c>
@@ -16115,7 +16118,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>325</v>
       </c>
@@ -16177,7 +16180,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>326</v>
       </c>
@@ -16239,7 +16242,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>327</v>
       </c>
@@ -16301,7 +16304,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>328</v>
       </c>
@@ -16363,7 +16366,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>329</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>330</v>
       </c>
@@ -16487,7 +16490,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>331</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>332</v>
       </c>
@@ -16611,7 +16614,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>333</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>334</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>335</v>
       </c>
@@ -16797,7 +16800,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>336</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>337</v>
       </c>
@@ -16921,7 +16924,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>338</v>
       </c>
@@ -16983,7 +16986,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>339</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>340</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>341</v>
       </c>
@@ -17169,7 +17172,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>342</v>
       </c>
@@ -17231,7 +17234,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>343</v>
       </c>
@@ -17293,7 +17296,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>344</v>
       </c>
@@ -17355,7 +17358,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>345</v>
       </c>
@@ -17417,7 +17420,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>346</v>
       </c>
@@ -17479,7 +17482,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>347</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>348</v>
       </c>
@@ -17603,7 +17606,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>349</v>
       </c>
@@ -17665,7 +17668,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>350</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>351</v>
       </c>
@@ -17789,7 +17792,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>352</v>
       </c>
@@ -17851,7 +17854,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>353</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>354</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>355</v>
       </c>
@@ -18037,7 +18040,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>356</v>
       </c>
@@ -18099,7 +18102,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>357</v>
       </c>
@@ -18161,7 +18164,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>358</v>
       </c>
@@ -18223,7 +18226,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>359</v>
       </c>
@@ -18285,7 +18288,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>360</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>361</v>
       </c>
@@ -18409,7 +18412,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>362</v>
       </c>
@@ -18471,7 +18474,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>363</v>
       </c>
@@ -18533,7 +18536,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>364</v>
       </c>
@@ -18595,7 +18598,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>365</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>366</v>
       </c>
@@ -18719,7 +18722,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>367</v>
       </c>
@@ -18781,7 +18784,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>368</v>
       </c>
@@ -18843,7 +18846,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>369</v>
       </c>
@@ -18905,7 +18908,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>370</v>
       </c>
@@ -18967,7 +18970,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>371</v>
       </c>
@@ -19029,7 +19032,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>372</v>
       </c>
@@ -19091,7 +19094,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>373</v>
       </c>
@@ -19153,7 +19156,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>374</v>
       </c>
@@ -19215,7 +19218,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>375</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>376</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>377</v>
       </c>
@@ -19401,7 +19404,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>378</v>
       </c>
@@ -19463,7 +19466,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>379</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>380</v>
       </c>
@@ -19587,7 +19590,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>381</v>
       </c>
@@ -19649,7 +19652,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>382</v>
       </c>
@@ -19711,7 +19714,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>383</v>
       </c>
@@ -19773,7 +19776,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>384</v>
       </c>
@@ -19835,7 +19838,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>385</v>
       </c>
@@ -19897,7 +19900,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>386</v>
       </c>
@@ -19959,7 +19962,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>0</v>
       </c>
@@ -20021,7 +20024,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>1</v>
       </c>
@@ -20083,7 +20086,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>2</v>
       </c>
@@ -20145,7 +20148,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>3</v>
       </c>
@@ -20207,7 +20210,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>4</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>5</v>
       </c>
@@ -20331,7 +20334,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>6</v>
       </c>
@@ -20393,7 +20396,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>7</v>
       </c>
@@ -20455,7 +20458,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>8</v>
       </c>
@@ -20517,7 +20520,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>9</v>
       </c>
@@ -20579,7 +20582,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>10</v>
       </c>
@@ -20641,7 +20644,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>11</v>
       </c>
@@ -20703,7 +20706,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>12</v>
       </c>
@@ -20765,7 +20768,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>13</v>
       </c>
@@ -20827,7 +20830,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>14</v>
       </c>
@@ -20889,7 +20892,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>15</v>
       </c>
@@ -20951,7 +20954,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>16</v>
       </c>
@@ -21013,7 +21016,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>17</v>
       </c>
@@ -21075,7 +21078,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>18</v>
       </c>
@@ -21137,7 +21140,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>19</v>
       </c>
@@ -21199,7 +21202,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>20</v>
       </c>
@@ -21261,7 +21264,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>21</v>
       </c>
@@ -21323,7 +21326,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>22</v>
       </c>
@@ -21385,7 +21388,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>23</v>
       </c>
@@ -21447,7 +21450,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>24</v>
       </c>
@@ -21509,7 +21512,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>25</v>
       </c>
@@ -21571,7 +21574,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>26</v>
       </c>
@@ -21633,7 +21636,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>27</v>
       </c>
@@ -21695,7 +21698,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>28</v>
       </c>
@@ -21757,7 +21760,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>29</v>
       </c>
@@ -21819,7 +21822,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>30</v>
       </c>
@@ -21881,7 +21884,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>31</v>
       </c>
@@ -21943,7 +21946,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>32</v>
       </c>
@@ -22005,7 +22008,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>33</v>
       </c>
@@ -22067,7 +22070,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>34</v>
       </c>
@@ -22129,7 +22132,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>35</v>
       </c>
@@ -22191,7 +22194,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>36</v>
       </c>
@@ -22253,7 +22256,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>37</v>
       </c>
@@ -22315,7 +22318,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>38</v>
       </c>
@@ -22377,7 +22380,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>39</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>40</v>
       </c>
@@ -22501,7 +22504,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>41</v>
       </c>
@@ -22563,7 +22566,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>42</v>
       </c>
@@ -22625,7 +22628,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>43</v>
       </c>
@@ -22687,7 +22690,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>44</v>
       </c>
@@ -22749,7 +22752,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>45</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>46</v>
       </c>
@@ -22873,7 +22876,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>47</v>
       </c>
@@ -22935,7 +22938,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>48</v>
       </c>
@@ -22997,7 +23000,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>49</v>
       </c>
@@ -23059,7 +23062,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>50</v>
       </c>
@@ -23121,7 +23124,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>51</v>
       </c>
@@ -23183,7 +23186,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>52</v>
       </c>
@@ -23245,7 +23248,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>53</v>
       </c>
@@ -23307,7 +23310,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>54</v>
       </c>
@@ -23369,7 +23372,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>55</v>
       </c>
@@ -23431,7 +23434,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>56</v>
       </c>
@@ -23493,7 +23496,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>57</v>
       </c>
@@ -23555,7 +23558,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>58</v>
       </c>
@@ -23617,7 +23620,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>59</v>
       </c>
@@ -23679,7 +23682,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>60</v>
       </c>
@@ -23741,7 +23744,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>61</v>
       </c>
@@ -23803,7 +23806,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>62</v>
       </c>
@@ -23865,7 +23868,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>63</v>
       </c>
@@ -23927,7 +23930,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>64</v>
       </c>
@@ -23989,7 +23992,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>65</v>
       </c>
@@ -24051,7 +24054,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>66</v>
       </c>
@@ -24113,7 +24116,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>67</v>
       </c>
@@ -24175,7 +24178,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>68</v>
       </c>
@@ -24237,7 +24240,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>69</v>
       </c>
@@ -24299,7 +24302,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>70</v>
       </c>
@@ -24361,7 +24364,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>71</v>
       </c>
@@ -24423,7 +24426,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>72</v>
       </c>
@@ -24485,7 +24488,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>73</v>
       </c>
@@ -24547,7 +24550,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>74</v>
       </c>
@@ -24609,7 +24612,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>75</v>
       </c>
@@ -24671,7 +24674,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>76</v>
       </c>
@@ -24733,7 +24736,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>77</v>
       </c>
@@ -24795,7 +24798,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>78</v>
       </c>
@@ -24857,7 +24860,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>79</v>
       </c>
@@ -24919,7 +24922,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>80</v>
       </c>
@@ -24981,7 +24984,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>81</v>
       </c>
@@ -25043,7 +25046,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>82</v>
       </c>
@@ -25105,7 +25108,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>83</v>
       </c>
@@ -25167,7 +25170,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>84</v>
       </c>
@@ -25229,7 +25232,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>85</v>
       </c>
@@ -25291,7 +25294,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>86</v>
       </c>
@@ -25353,7 +25356,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>87</v>
       </c>
@@ -25415,7 +25418,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>88</v>
       </c>
@@ -25477,7 +25480,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>89</v>
       </c>
@@ -25539,7 +25542,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>90</v>
       </c>
@@ -25601,7 +25604,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>91</v>
       </c>
@@ -25663,7 +25666,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>92</v>
       </c>
@@ -25725,7 +25728,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>93</v>
       </c>
@@ -25787,7 +25790,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25849,7 +25852,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>95</v>
       </c>
@@ -25911,7 +25914,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>96</v>
       </c>
@@ -25973,7 +25976,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>97</v>
       </c>
@@ -26035,7 +26038,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>98</v>
       </c>
@@ -26097,7 +26100,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>99</v>
       </c>
@@ -26159,7 +26162,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>100</v>
       </c>
@@ -26221,7 +26224,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>101</v>
       </c>
@@ -26283,7 +26286,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>102</v>
       </c>
@@ -26345,7 +26348,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>103</v>
       </c>
@@ -26407,7 +26410,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>104</v>
       </c>
@@ -26469,7 +26472,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>105</v>
       </c>
@@ -26531,7 +26534,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>106</v>
       </c>
@@ -26593,7 +26596,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>107</v>
       </c>
@@ -26655,7 +26658,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>108</v>
       </c>
@@ -26717,7 +26720,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>109</v>
       </c>
@@ -26779,7 +26782,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>110</v>
       </c>
@@ -26841,7 +26844,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>111</v>
       </c>
@@ -26903,7 +26906,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>112</v>
       </c>
@@ -26965,7 +26968,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>113</v>
       </c>
@@ -27027,7 +27030,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>114</v>
       </c>
@@ -27089,7 +27092,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>115</v>
       </c>
@@ -27151,7 +27154,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>116</v>
       </c>
@@ -27213,7 +27216,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>117</v>
       </c>
@@ -27275,7 +27278,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>118</v>
       </c>
@@ -27337,7 +27340,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>119</v>
       </c>
@@ -27399,7 +27402,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>120</v>
       </c>
@@ -27461,7 +27464,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>121</v>
       </c>
@@ -27523,7 +27526,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>122</v>
       </c>
@@ -27585,7 +27588,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>123</v>
       </c>
@@ -27647,7 +27650,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>124</v>
       </c>
@@ -27709,7 +27712,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>125</v>
       </c>
@@ -27771,7 +27774,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>126</v>
       </c>
@@ -27833,7 +27836,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>127</v>
       </c>
@@ -27895,7 +27898,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>128</v>
       </c>
@@ -27957,7 +27960,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>129</v>
       </c>
@@ -28019,7 +28022,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>130</v>
       </c>
@@ -28081,7 +28084,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>131</v>
       </c>
@@ -28143,7 +28146,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>132</v>
       </c>
@@ -28205,7 +28208,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>133</v>
       </c>
@@ -28267,7 +28270,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>134</v>
       </c>
@@ -28329,7 +28332,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>135</v>
       </c>
@@ -28391,7 +28394,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>136</v>
       </c>
@@ -28453,7 +28456,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>137</v>
       </c>
@@ -28515,7 +28518,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>138</v>
       </c>
@@ -28577,7 +28580,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>139</v>
       </c>
@@ -28639,7 +28642,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>140</v>
       </c>
@@ -28701,7 +28704,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>141</v>
       </c>
@@ -28763,7 +28766,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>142</v>
       </c>
@@ -28825,7 +28828,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>143</v>
       </c>
@@ -28887,7 +28890,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>144</v>
       </c>
@@ -28949,7 +28952,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>145</v>
       </c>
@@ -29011,7 +29014,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>146</v>
       </c>
@@ -29073,7 +29076,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>147</v>
       </c>
@@ -29135,7 +29138,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>148</v>
       </c>
@@ -29197,7 +29200,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>149</v>
       </c>
@@ -29259,7 +29262,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>150</v>
       </c>
@@ -29321,7 +29324,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>151</v>
       </c>
@@ -29383,7 +29386,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>152</v>
       </c>
@@ -29445,7 +29448,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="386" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>153</v>
       </c>
@@ -29507,7 +29510,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="387" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>154</v>
       </c>
@@ -29569,7 +29572,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="388" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>155</v>
       </c>
@@ -29631,7 +29634,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="389" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>156</v>
       </c>
@@ -29693,7 +29696,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="390" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>157</v>
       </c>
@@ -29755,7 +29758,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="391" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>158</v>
       </c>
@@ -29817,7 +29820,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="392" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>159</v>
       </c>
@@ -29879,7 +29882,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>160</v>
       </c>
@@ -29941,7 +29944,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="394" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>161</v>
       </c>
@@ -30003,7 +30006,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="395" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>162</v>
       </c>
@@ -30065,7 +30068,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>163</v>
       </c>
@@ -30127,7 +30130,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="397" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>164</v>
       </c>
@@ -30189,7 +30192,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="398" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>165</v>
       </c>
@@ -30251,7 +30254,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="399" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>166</v>
       </c>
@@ -30313,7 +30316,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="400" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>167</v>
       </c>
@@ -30375,7 +30378,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>168</v>
       </c>
@@ -30437,7 +30440,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>169</v>
       </c>
@@ -30499,7 +30502,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>170</v>
       </c>
@@ -30561,7 +30564,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="404" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>171</v>
       </c>
@@ -30623,7 +30626,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="405" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>172</v>
       </c>
@@ -30685,7 +30688,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>173</v>
       </c>
@@ -30747,7 +30750,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="407" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>174</v>
       </c>
@@ -30809,7 +30812,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>175</v>
       </c>
@@ -30871,7 +30874,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="409" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>176</v>
       </c>
@@ -30933,7 +30936,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>177</v>
       </c>
@@ -30995,7 +30998,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>178</v>
       </c>
@@ -31057,7 +31060,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="412" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>179</v>
       </c>
@@ -31119,7 +31122,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>180</v>
       </c>
@@ -31181,7 +31184,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="414" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>181</v>
       </c>
@@ -31243,7 +31246,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>182</v>
       </c>
@@ -31305,7 +31308,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="416" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>183</v>
       </c>
@@ -31367,7 +31370,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="417" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>184</v>
       </c>
@@ -31429,7 +31432,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="418" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>185</v>
       </c>
@@ -31491,7 +31494,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="419" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>186</v>
       </c>
@@ -31553,7 +31556,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="420" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>187</v>
       </c>
@@ -31615,7 +31618,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="421" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>188</v>
       </c>
@@ -31677,7 +31680,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>189</v>
       </c>
@@ -31739,7 +31742,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>190</v>
       </c>
